--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Core_RISC_2022_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Core_RISC_2022_2023\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C1E39A-F4D9-4B34-A67D-D82E262F7B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A22BA4-57F4-40BB-B25D-9168CAF4AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C74EF8FA-AD40-45EA-A7D2-8F8839E2C7A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Всего</t>
   </si>
@@ -1324,6 +1324,192 @@
     </r>
   </si>
   <si>
+    <t>X50</t>
+  </si>
+  <si>
+    <t>X51</t>
+  </si>
+  <si>
+    <t>X46</t>
+  </si>
+  <si>
+    <t>X47</t>
+  </si>
+  <si>
+    <t>X48</t>
+  </si>
+  <si>
+    <t>X49</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X46 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>всего</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X47 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>публикации каталогов товаров  (работ, услуг) или прейскурантов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X48 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>публикации вакансий на рабочие места или приема онлайн- заявлений на работу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X49 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>размещения версии веб-сайта для пользователей мобильной связи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X50 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>онлайновой системы платежей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X51 - Цели использования веб-сайта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отслеживания статуса заказов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в процентах от общего числа организаций</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">X39 - Общие цели использования сети Интернет </t>
     </r>
@@ -1337,7 +1523,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Профессиональная подготовка персонала</t>
+      <t>Подписка на доступ к электронным базам данных, электронным библиотекам на платной основе</t>
     </r>
     <r>
       <rPr>
@@ -1353,7 +1539,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X40 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X40 - Коммерческие цели использования сети Интернет для связи с потребителями </t>
     </r>
     <r>
       <rPr>
@@ -1381,7 +1567,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X41 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X41 - Коммерческие цели использования сети Интернет для связи с потребителями </t>
     </r>
     <r>
       <rPr>
@@ -1409,7 +1595,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X42 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X42 - Коммерческие цели использования сети Интернет для связи с потребителями </t>
     </r>
     <r>
       <rPr>
@@ -1437,7 +1623,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X43 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X43 - Коммерческие цели использования сети Интернет для связи с потребителями </t>
     </r>
     <r>
       <rPr>
@@ -1449,7 +1635,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>на выпускаемые организацией товары (работы, услуги) (без учета заказов, отправленных по электронной почте)</t>
+      <t>получение заказов на выпускаемые организацией товары (работы, услуги) (без учета заказов, отправленных по электронной почте)</t>
     </r>
     <r>
       <rPr>
@@ -1465,7 +1651,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X44 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X44 - Коммерческие цели использования сети Интернет для связи с потребителями  </t>
     </r>
     <r>
       <rPr>
@@ -1493,7 +1679,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X45 - Коммерческие цели использования сети Интернет </t>
+      <t xml:space="preserve">X45 - Коммерческие цели использования сети Интернет для связи с потребителями </t>
     </r>
     <r>
       <rPr>
@@ -1520,26 +1706,8 @@
     </r>
   </si>
   <si>
-    <t>X50</t>
-  </si>
-  <si>
-    <t>X51</t>
-  </si>
-  <si>
-    <t>X46</t>
-  </si>
-  <si>
-    <t>X47</t>
-  </si>
-  <si>
-    <t>X48</t>
-  </si>
-  <si>
-    <t>X49</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">X46 - Цели использования веб-сайта </t>
+    <r>
+      <t xml:space="preserve">X52 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1567,7 +1735,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X47 - Цели использования веб-сайта </t>
+      <t xml:space="preserve">X53 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1579,7 +1747,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>публикации каталогов товаров  (работ, услуг) или прейскурантов</t>
+      <t>получение сведений о необходимых товарах (работах, услугах) и их поставщиках</t>
     </r>
     <r>
       <rPr>
@@ -1595,7 +1763,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X48 - Цели использования веб-сайта </t>
+      <t xml:space="preserve">X54 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1607,7 +1775,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>публикации вакансий на рабочие места или приема онлайн- заявлений на работу</t>
+      <t>предоставление сведений о потребностях организации в товарах (работах, услугах)</t>
     </r>
     <r>
       <rPr>
@@ -1623,7 +1791,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X49 - Цели использования веб-сайта </t>
+      <t xml:space="preserve">X55 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1635,7 +1803,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>размещения версии веб-сайта для пользователей мобильной связи</t>
+      <t>оплата поставляемых товаров (работ, услуг)</t>
     </r>
     <r>
       <rPr>
@@ -1651,7 +1819,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X50 - Цели использования веб-сайта </t>
+      <t xml:space="preserve">X56 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1663,7 +1831,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>онлайновой системы платежей</t>
+      <t>размещение заказов на необходимые организации  товары (работы, услуги) (без учета заказов, отправленных по электронной почте)</t>
     </r>
     <r>
       <rPr>
@@ -1679,7 +1847,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">X51 - Цели использования веб-сайта </t>
+      <t xml:space="preserve">X57 -  Коммерческие цели использования сети Интернет для связи с поставщиками </t>
     </r>
     <r>
       <rPr>
@@ -1691,7 +1859,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>отслеживания статуса заказов</t>
+      <t>получение электронной продукции</t>
     </r>
     <r>
       <rPr>
@@ -1704,6 +1872,24 @@
       </rPr>
       <t>, в процентах от общего числа организаций</t>
     </r>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
+    <t>X53</t>
+  </si>
+  <si>
+    <t>X54</t>
+  </si>
+  <si>
+    <t>X55</t>
+  </si>
+  <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X57</t>
   </si>
 </sst>
 </file>
@@ -1729,12 +1915,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1749,11 +1941,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2068,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700F5A9-E5D3-4646-8DFA-7D1F89A425C9}">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BD1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2273,7 @@
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2217,183 +2410,219 @@
         <v>98</v>
       </c>
       <c r="AU1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AV1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AW1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AX1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AY1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AZ1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>53.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>63.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>91.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>86.6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>51.9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>45</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>35.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>4.7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>21.5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>21.8</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>28.1</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>14.5</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>13.6</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>67</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>6.3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>70</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>57.1</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>54.8</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>32</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>20.5</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <v>79.099999999999994</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="2">
         <v>78.7</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="2">
         <v>61.4</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="2">
         <v>55.8</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2">
         <v>55.7</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="2">
         <v>48.7</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="2">
         <v>229</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="2">
         <v>146</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="2">
         <v>83</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="2">
         <v>44.9</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="2">
         <v>42.6</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="2">
         <v>29</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="2">
         <v>53.3</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="2">
         <v>48.6</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="2">
         <v>28.3</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="2">
         <v>23.7</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="2">
         <v>7.3</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="2">
         <v>6.5</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="2">
         <v>51.9</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="2">
         <v>23.8</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="2">
         <v>19.7</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="2">
         <v>14</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="2">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA2" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2550,166 +2779,202 @@
       <c r="AZ3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="BA3">
+        <v>63.6</v>
+      </c>
+      <c r="BB3">
+        <v>56.9</v>
+      </c>
+      <c r="BC3">
+        <v>37.9</v>
+      </c>
+      <c r="BD3">
+        <v>47.3</v>
+      </c>
+      <c r="BE3">
+        <v>27.3</v>
+      </c>
+      <c r="BF3">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>60.6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>89.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>86</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>48.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>40.1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>31.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>3.6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>33.1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>23.3</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>11.2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>29.1</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>12.5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>67.3</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>58.1</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>57.2</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>31.2</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>29.2</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>19.3</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <v>73.400000000000006</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="2">
         <v>79</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="2">
         <v>61.5</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <v>61</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>58.7</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="2">
         <v>56.2</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="2">
         <v>253</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="2">
         <v>168</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="2">
         <v>85</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="2">
         <v>68.2</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="2">
         <v>45</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="2">
         <v>44.2</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="2">
         <v>41.6</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="2">
         <v>42.3</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="2">
         <v>32</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="2">
         <v>60</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="2">
         <v>54.1</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="2">
         <v>36.1</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="2">
         <v>30.9</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="2">
         <v>9.5</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="2">
         <v>8.1</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="2">
         <v>48.5</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="2">
         <v>28.5</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="2">
         <v>21.8</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="2">
         <v>11.9</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="2">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA4" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>48.6</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2866,8 +3131,26 @@
       <c r="AZ5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="BB5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="BC5">
+        <v>47.8</v>
+      </c>
+      <c r="BD5">
+        <v>45.2</v>
+      </c>
+      <c r="BE5">
+        <v>34.6</v>
+      </c>
+      <c r="BF5">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3024,8 +3307,26 @@
       <c r="AZ6">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA6">
+        <v>83.3</v>
+      </c>
+      <c r="BB6">
+        <v>80</v>
+      </c>
+      <c r="BC6">
+        <v>59.2</v>
+      </c>
+      <c r="BD6">
+        <v>56.4</v>
+      </c>
+      <c r="BE6">
+        <v>42.9</v>
+      </c>
+      <c r="BF6">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3182,8 +3483,26 @@
       <c r="AZ7">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA7">
+        <v>78.3</v>
+      </c>
+      <c r="BB7">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="BC7">
+        <v>58</v>
+      </c>
+      <c r="BD7">
+        <v>52.1</v>
+      </c>
+      <c r="BE7">
+        <v>50.3</v>
+      </c>
+      <c r="BF7">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3340,8 +3659,26 @@
       <c r="AZ8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA8">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="BB8">
+        <v>60.4</v>
+      </c>
+      <c r="BC8">
+        <v>41.8</v>
+      </c>
+      <c r="BD8">
+        <v>51.4</v>
+      </c>
+      <c r="BE8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="BF8">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3498,8 +3835,26 @@
       <c r="AZ9">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA9">
+        <v>67.2</v>
+      </c>
+      <c r="BB9">
+        <v>62.6</v>
+      </c>
+      <c r="BC9">
+        <v>40.1</v>
+      </c>
+      <c r="BD9">
+        <v>45.4</v>
+      </c>
+      <c r="BE9">
+        <v>28.2</v>
+      </c>
+      <c r="BF9">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3656,8 +4011,26 @@
       <c r="AZ10">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA10">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="BB10">
+        <v>68.2</v>
+      </c>
+      <c r="BC10">
+        <v>53.1</v>
+      </c>
+      <c r="BD10">
+        <v>49.4</v>
+      </c>
+      <c r="BE10">
+        <v>46.2</v>
+      </c>
+      <c r="BF10">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3814,8 +4187,26 @@
       <c r="AZ11">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA11">
+        <v>67.5</v>
+      </c>
+      <c r="BB11">
+        <v>63.4</v>
+      </c>
+      <c r="BC11">
+        <v>45.4</v>
+      </c>
+      <c r="BD11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BE11">
+        <v>37.6</v>
+      </c>
+      <c r="BF11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3972,8 +4363,26 @@
       <c r="AZ12">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA12">
+        <v>70.8</v>
+      </c>
+      <c r="BB12">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="BC12">
+        <v>50.4</v>
+      </c>
+      <c r="BD12">
+        <v>43</v>
+      </c>
+      <c r="BE12">
+        <v>42.4</v>
+      </c>
+      <c r="BF12">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4130,8 +4539,26 @@
       <c r="AZ13">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA13">
+        <v>76.8</v>
+      </c>
+      <c r="BB13">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="BC13">
+        <v>50.3</v>
+      </c>
+      <c r="BD13">
+        <v>48.9</v>
+      </c>
+      <c r="BE13">
+        <v>42.3</v>
+      </c>
+      <c r="BF13">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4288,8 +4715,26 @@
       <c r="AZ14">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA14">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="BB14">
+        <v>56.2</v>
+      </c>
+      <c r="BC14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="BD14">
+        <v>43.1</v>
+      </c>
+      <c r="BE14">
+        <v>30.1</v>
+      </c>
+      <c r="BF14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4446,8 +4891,26 @@
       <c r="AZ15">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA15">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="BB15">
+        <v>61.8</v>
+      </c>
+      <c r="BC15">
+        <v>43.4</v>
+      </c>
+      <c r="BD15">
+        <v>44.4</v>
+      </c>
+      <c r="BE15">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="BF15">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4604,8 +5067,26 @@
       <c r="AZ16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA16">
+        <v>65.2</v>
+      </c>
+      <c r="BB16">
+        <v>59.1</v>
+      </c>
+      <c r="BC16">
+        <v>42.7</v>
+      </c>
+      <c r="BD16">
+        <v>42.7</v>
+      </c>
+      <c r="BE16">
+        <v>38</v>
+      </c>
+      <c r="BF16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4762,166 +5243,202 @@
       <c r="AZ17">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="BA17">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="BB17">
+        <v>61.5</v>
+      </c>
+      <c r="BC17">
+        <v>37.9</v>
+      </c>
+      <c r="BD17">
+        <v>33.9</v>
+      </c>
+      <c r="BE17">
+        <v>30.3</v>
+      </c>
+      <c r="BF17">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>43.2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>55.4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>91.3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>85.3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>63.4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>47</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>24.4</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>20.5</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>6.7</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>27</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>10.7</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>16.3</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>65</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <v>4.2</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="2">
         <v>67.2</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <v>53.1</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="2">
         <v>47.5</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="2">
         <v>30.4</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <v>6.8</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>11.6</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="2">
         <v>83.7</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="2">
         <v>74.3</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="2">
         <v>57.4</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="2">
         <v>45.9</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="2">
         <v>45.5</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="2">
         <v>35.5</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="2">
         <v>123</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="2">
         <v>63</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="2">
         <v>60</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="2">
         <v>61.1</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="2">
         <v>45.5</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="2">
         <v>35.6</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="2">
         <v>24</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="2">
         <v>19</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" s="2">
         <v>25.8</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" s="2">
         <v>54.6</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" s="2">
         <v>52.1</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" s="2">
         <v>16.3</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" s="2">
         <v>3.3</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" s="2">
         <v>4.5</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" s="2">
         <v>63.4</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" s="2">
         <v>31.9</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" s="2">
         <v>20.9</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" s="2">
         <v>15.1</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" s="2">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA18" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5078,8 +5595,26 @@
       <c r="AZ19">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA19">
+        <v>82.5</v>
+      </c>
+      <c r="BB19">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="BC19">
+        <v>57.4</v>
+      </c>
+      <c r="BD19">
+        <v>55.3</v>
+      </c>
+      <c r="BE19">
+        <v>53</v>
+      </c>
+      <c r="BF19">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5236,8 +5771,26 @@
       <c r="AZ20">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA20">
+        <v>87.3</v>
+      </c>
+      <c r="BB20">
+        <v>82.9</v>
+      </c>
+      <c r="BC20">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="BD20">
+        <v>63.8</v>
+      </c>
+      <c r="BE20">
+        <v>71.7</v>
+      </c>
+      <c r="BF20">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5394,8 +5947,26 @@
       <c r="AZ21">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA21">
+        <v>60.3</v>
+      </c>
+      <c r="BB21">
+        <v>54</v>
+      </c>
+      <c r="BC21">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="BD21">
+        <v>29.6</v>
+      </c>
+      <c r="BE21">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="BF21">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5551,6 +6122,24 @@
       </c>
       <c r="AZ22">
         <v>3.5</v>
+      </c>
+      <c r="BA22">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="BB22">
+        <v>59.5</v>
+      </c>
+      <c r="BC22">
+        <v>46.9</v>
+      </c>
+      <c r="BD22">
+        <v>38.5</v>
+      </c>
+      <c r="BE22">
+        <v>50.1</v>
+      </c>
+      <c r="BF22">
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>
@@ -5560,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB330550-DD18-498F-81BC-F9C6406C0566}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5763,67 +6352,97 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Core_RISC_2022_2023\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A22BA4-57F4-40BB-B25D-9168CAF4AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268354A-66F2-45F1-9D9E-AE6BAF958DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C74EF8FA-AD40-45EA-A7D2-8F8839E2C7A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C74EF8FA-AD40-45EA-A7D2-8F8839E2C7A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="legend" sheetId="2" r:id="rId2"/>
+    <sheet name="raw_data_for_indexes" sheetId="3" r:id="rId3"/>
+    <sheet name="indexes_and_INDEX" sheetId="5" r:id="rId4"/>
+    <sheet name="indicators_for_indexes" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="164">
   <si>
     <t>Всего</t>
   </si>
@@ -1890,12 +1893,102 @@
   </si>
   <si>
     <t>X57</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>показатели</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Index_A</t>
+  </si>
+  <si>
+    <t>Index_B</t>
+  </si>
+  <si>
+    <t>Index_C</t>
+  </si>
+  <si>
+    <t>Index_D</t>
+  </si>
+  <si>
+    <t>пк</t>
+  </si>
+  <si>
+    <t>шпд</t>
+  </si>
+  <si>
+    <t>сайт</t>
+  </si>
+  <si>
+    <t>облако</t>
+  </si>
+  <si>
+    <t>фин_расчеты</t>
+  </si>
+  <si>
+    <t>экон_задачи</t>
+  </si>
+  <si>
+    <t>доступ_бд</t>
+  </si>
+  <si>
+    <t>эл_подписи</t>
+  </si>
+  <si>
+    <t>антивирус</t>
+  </si>
+  <si>
+    <t>спецы_высш</t>
+  </si>
+  <si>
+    <t>спецы_сред</t>
+  </si>
+  <si>
+    <t>Обеспечение электроэнергией, газом и паром; ко…</t>
+  </si>
+  <si>
+    <t>Водоснабжение; водоотведение, организация сбор..</t>
+  </si>
+  <si>
+    <t>Сельское, лесное хозяйство, охота, рыболовство…</t>
+  </si>
+  <si>
+    <t>Оптовая и розничная торговля; ремонт автотранс…</t>
+  </si>
+  <si>
+    <t>Деятельность гостиниц и организаций общественн…</t>
+  </si>
+  <si>
+    <t>Деятельность профессиональная, научная и техни…</t>
+  </si>
+  <si>
+    <t>Деятельность административная и сопутствующие …</t>
+  </si>
+  <si>
+    <t>Образование высшее, подготовка кадров высшей к…</t>
+  </si>
+  <si>
+    <t>Деятельность в области здравоохранения и предо…</t>
+  </si>
+  <si>
+    <t>Деятельность в области культуры, спорта, орган…</t>
+  </si>
+  <si>
+    <t>Государственное управление и обеспечение военн…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1915,7 +2008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1925,6 +2018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,12 +2040,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2263,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700F5A9-E5D3-4646-8DFA-7D1F89A425C9}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,179 +4483,179 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>65.099999999999994</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>71.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>95</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>92.4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>63.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>82</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>75.7</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>2.6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>14.4</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>27.6</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>27</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>23.5</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>36.1</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <v>18.3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>69.900000000000006</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="3">
         <v>8.5</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>73.599999999999994</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="3">
         <v>56.6</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="3">
         <v>57.4</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="3">
         <v>34.6</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="3">
         <v>30.3</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="3">
         <v>20</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="3">
         <v>82.7</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="3">
         <v>84.7</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="3">
         <v>68.2</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="3">
         <v>63.8</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="3">
         <v>59.2</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="3">
         <v>2341</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="3">
         <v>1697</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="3">
         <v>644</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="3">
         <v>69.8</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="3">
         <v>51.3</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="3">
         <v>52.7</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="3">
         <v>42</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="3">
         <v>46.7</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="3">
         <v>64.7</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="3">
         <v>60.3</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="3">
         <v>34.1</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="3">
         <v>19.2</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="3">
         <v>22.7</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="3">
         <v>63.2</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="3">
         <v>32.4</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="3">
         <v>24.4</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="3">
         <v>23</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" s="3">
         <v>17.5</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" s="3">
         <v>14.6</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" s="3">
         <v>76.8</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" s="3">
         <v>50.3</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" s="3">
         <v>48.9</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" s="3">
         <v>42.3</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" s="3">
         <v>41.2</v>
       </c>
     </row>
@@ -6151,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB330550-DD18-498F-81BC-F9C6406C0566}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6449,4 +6550,2007 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED760D-13CC-4DB9-84A4-08B67DC1E544}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>74.3</v>
+      </c>
+      <c r="C2">
+        <v>25.1</v>
+      </c>
+      <c r="D2">
+        <v>15.4</v>
+      </c>
+      <c r="E2">
+        <v>20.9</v>
+      </c>
+      <c r="F2">
+        <v>50.5</v>
+      </c>
+      <c r="G2">
+        <v>41.8</v>
+      </c>
+      <c r="H2">
+        <v>23.7</v>
+      </c>
+      <c r="I2">
+        <v>72.7</v>
+      </c>
+      <c r="J2">
+        <v>36.6</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>82.6</v>
+      </c>
+      <c r="C3">
+        <v>40.4</v>
+      </c>
+      <c r="D3">
+        <v>29.2</v>
+      </c>
+      <c r="E3">
+        <v>20.7</v>
+      </c>
+      <c r="F3">
+        <v>54.9</v>
+      </c>
+      <c r="G3">
+        <v>55.6</v>
+      </c>
+      <c r="H3">
+        <v>24.2</v>
+      </c>
+      <c r="I3">
+        <v>70.5</v>
+      </c>
+      <c r="J3">
+        <v>65.2</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>90.4</v>
+      </c>
+      <c r="C4">
+        <v>63.2</v>
+      </c>
+      <c r="D4">
+        <v>32.9</v>
+      </c>
+      <c r="E4">
+        <v>27.6</v>
+      </c>
+      <c r="F4">
+        <v>67.7</v>
+      </c>
+      <c r="G4">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H4">
+        <v>28.8</v>
+      </c>
+      <c r="I4">
+        <v>83.6</v>
+      </c>
+      <c r="J4">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>126</v>
+      </c>
+      <c r="L4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>87.4</v>
+      </c>
+      <c r="C5">
+        <v>51.1</v>
+      </c>
+      <c r="D5">
+        <v>40.5</v>
+      </c>
+      <c r="E5">
+        <v>20.9</v>
+      </c>
+      <c r="F5">
+        <v>64.3</v>
+      </c>
+      <c r="G5">
+        <v>61.4</v>
+      </c>
+      <c r="H5">
+        <v>29.2</v>
+      </c>
+      <c r="I5">
+        <v>84.6</v>
+      </c>
+      <c r="J5">
+        <v>64.8</v>
+      </c>
+      <c r="K5">
+        <v>162</v>
+      </c>
+      <c r="L5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>78.8</v>
+      </c>
+      <c r="C6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D6">
+        <v>23.8</v>
+      </c>
+      <c r="E6">
+        <v>24.1</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>26.5</v>
+      </c>
+      <c r="I6">
+        <v>80.7</v>
+      </c>
+      <c r="J6">
+        <v>37.1</v>
+      </c>
+      <c r="K6">
+        <v>103</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="C7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D7">
+        <v>16.3</v>
+      </c>
+      <c r="E7">
+        <v>22.3</v>
+      </c>
+      <c r="F7">
+        <v>52.1</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>21.8</v>
+      </c>
+      <c r="I7">
+        <v>69.3</v>
+      </c>
+      <c r="J7">
+        <v>49.9</v>
+      </c>
+      <c r="K7">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>54.5</v>
+      </c>
+      <c r="D8">
+        <v>52.8</v>
+      </c>
+      <c r="E8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F8">
+        <v>60.5</v>
+      </c>
+      <c r="G8">
+        <v>61.2</v>
+      </c>
+      <c r="H8">
+        <v>41.5</v>
+      </c>
+      <c r="I8">
+        <v>61.4</v>
+      </c>
+      <c r="J8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>80.8</v>
+      </c>
+      <c r="C9">
+        <v>38.1</v>
+      </c>
+      <c r="D9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>22.9</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>61.1</v>
+      </c>
+      <c r="H9">
+        <v>25.8</v>
+      </c>
+      <c r="I9">
+        <v>77.8</v>
+      </c>
+      <c r="J9">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K9">
+        <v>105</v>
+      </c>
+      <c r="L9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>81.5</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20.2</v>
+      </c>
+      <c r="E10">
+        <v>35.5</v>
+      </c>
+      <c r="F10">
+        <v>58.8</v>
+      </c>
+      <c r="G10">
+        <v>51.4</v>
+      </c>
+      <c r="H10">
+        <v>32.6</v>
+      </c>
+      <c r="I10">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J10">
+        <v>50.3</v>
+      </c>
+      <c r="K10">
+        <v>66</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>63.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>56.6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2341</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>78.8</v>
+      </c>
+      <c r="C12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>21.7</v>
+      </c>
+      <c r="F12">
+        <v>53.7</v>
+      </c>
+      <c r="G12">
+        <v>47.6</v>
+      </c>
+      <c r="H12">
+        <v>21.7</v>
+      </c>
+      <c r="I12">
+        <v>78.2</v>
+      </c>
+      <c r="J12">
+        <v>43.7</v>
+      </c>
+      <c r="K12">
+        <v>211</v>
+      </c>
+      <c r="L12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>85.8</v>
+      </c>
+      <c r="C13">
+        <v>41.6</v>
+      </c>
+      <c r="D13">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E13">
+        <v>25.4</v>
+      </c>
+      <c r="F13">
+        <v>56.8</v>
+      </c>
+      <c r="G13">
+        <v>51.2</v>
+      </c>
+      <c r="H13">
+        <v>25.7</v>
+      </c>
+      <c r="I13">
+        <v>79.5</v>
+      </c>
+      <c r="J13">
+        <v>52.8</v>
+      </c>
+      <c r="K13">
+        <v>444</v>
+      </c>
+      <c r="L13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C14">
+        <v>33.9</v>
+      </c>
+      <c r="D14">
+        <v>23.9</v>
+      </c>
+      <c r="E14">
+        <v>21.7</v>
+      </c>
+      <c r="F14">
+        <v>52.5</v>
+      </c>
+      <c r="G14">
+        <v>49.8</v>
+      </c>
+      <c r="H14">
+        <v>29.4</v>
+      </c>
+      <c r="I14">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J14">
+        <v>50.5</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>93.8</v>
+      </c>
+      <c r="C15">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D15">
+        <v>86.5</v>
+      </c>
+      <c r="E15">
+        <v>38.5</v>
+      </c>
+      <c r="F15">
+        <v>54.8</v>
+      </c>
+      <c r="G15">
+        <v>70.2</v>
+      </c>
+      <c r="H15">
+        <v>46.1</v>
+      </c>
+      <c r="I15">
+        <v>81.3</v>
+      </c>
+      <c r="J15">
+        <v>81.3</v>
+      </c>
+      <c r="K15">
+        <v>474</v>
+      </c>
+      <c r="L15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>90.3</v>
+      </c>
+      <c r="C16">
+        <v>84.8</v>
+      </c>
+      <c r="D16">
+        <v>77.3</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G16">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>38.5</v>
+      </c>
+      <c r="I16">
+        <v>87.1</v>
+      </c>
+      <c r="J16">
+        <v>70.5</v>
+      </c>
+      <c r="K16">
+        <v>288</v>
+      </c>
+      <c r="L16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>92.4</v>
+      </c>
+      <c r="C17">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="D17">
+        <v>42.4</v>
+      </c>
+      <c r="E17">
+        <v>34.5</v>
+      </c>
+      <c r="F17">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G17">
+        <v>62.8</v>
+      </c>
+      <c r="H17">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="I17">
+        <v>92.3</v>
+      </c>
+      <c r="J17">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="K17">
+        <v>91</v>
+      </c>
+      <c r="L17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>49.6</v>
+      </c>
+      <c r="D18">
+        <v>43.6</v>
+      </c>
+      <c r="E18">
+        <v>20.5</v>
+      </c>
+      <c r="F18">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G18">
+        <v>35.1</v>
+      </c>
+      <c r="H18">
+        <v>26.7</v>
+      </c>
+      <c r="I18">
+        <v>77.5</v>
+      </c>
+      <c r="J18">
+        <v>30.6</v>
+      </c>
+      <c r="K18">
+        <v>135</v>
+      </c>
+      <c r="L18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>89.1</v>
+      </c>
+      <c r="C19">
+        <v>51.6</v>
+      </c>
+      <c r="D19">
+        <v>73.2</v>
+      </c>
+      <c r="E19">
+        <v>24.5</v>
+      </c>
+      <c r="F19">
+        <v>58.9</v>
+      </c>
+      <c r="G19">
+        <v>52.9</v>
+      </c>
+      <c r="H19">
+        <v>32.9</v>
+      </c>
+      <c r="I19">
+        <v>90.3</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>240</v>
+      </c>
+      <c r="L19">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21879E3-58A7-4778-A440-1541493062E5}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>54.6</v>
+      </c>
+      <c r="G2">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="D3">
+        <v>84.1</v>
+      </c>
+      <c r="E3">
+        <v>53.5</v>
+      </c>
+      <c r="F3">
+        <v>67.8</v>
+      </c>
+      <c r="G3">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42.6</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>102.5</v>
+      </c>
+      <c r="F4">
+        <v>75.8</v>
+      </c>
+      <c r="G4">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="D5">
+        <v>97.3</v>
+      </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>74.7</v>
+      </c>
+      <c r="G5">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="D6">
+        <v>82.9</v>
+      </c>
+      <c r="E6">
+        <v>80.5</v>
+      </c>
+      <c r="F6">
+        <v>58.9</v>
+      </c>
+      <c r="G6">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="D7">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E7">
+        <v>40.5</v>
+      </c>
+      <c r="F7">
+        <v>59.6</v>
+      </c>
+      <c r="G7">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="D8">
+        <v>97.1</v>
+      </c>
+      <c r="E8">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G8">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D9">
+        <v>84.9</v>
+      </c>
+      <c r="E9">
+        <v>79.5</v>
+      </c>
+      <c r="F9">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G9">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="D10">
+        <v>88.8</v>
+      </c>
+      <c r="E10">
+        <v>48.5</v>
+      </c>
+      <c r="F10">
+        <v>63.4</v>
+      </c>
+      <c r="G10">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="D11">
+        <v>89.6</v>
+      </c>
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G11">
+        <v>465.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>159</v>
+      </c>
+      <c r="F12">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="D13">
+        <v>84.7</v>
+      </c>
+      <c r="E13">
+        <v>387.5</v>
+      </c>
+      <c r="F13">
+        <v>66.2</v>
+      </c>
+      <c r="G13">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="D14">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E14">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>63.2</v>
+      </c>
+      <c r="G14">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D15">
+        <v>96.4</v>
+      </c>
+      <c r="E15">
+        <v>405.5</v>
+      </c>
+      <c r="F15">
+        <v>81.3</v>
+      </c>
+      <c r="G15">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>107.3</v>
+      </c>
+      <c r="E16">
+        <v>241.5</v>
+      </c>
+      <c r="F16">
+        <v>78.8</v>
+      </c>
+      <c r="G16">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>51.9</v>
+      </c>
+      <c r="D17">
+        <v>107.8</v>
+      </c>
+      <c r="E17">
+        <v>66.5</v>
+      </c>
+      <c r="F17">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G17">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>94.5</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>89.6</v>
+      </c>
+      <c r="E19">
+        <v>185.5</v>
+      </c>
+      <c r="F19">
+        <v>69.2</v>
+      </c>
+      <c r="G19">
+        <v>95.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C5E460-BD5B-4771-B7D7-AE2287AB3375}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2">
+        <v>74.3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="G2">
+        <v>50.5</v>
+      </c>
+      <c r="H2">
+        <v>41.8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="J2">
+        <v>72.7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>82.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="G3">
+        <v>54.9</v>
+      </c>
+      <c r="H3">
+        <v>55.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="J3">
+        <v>70.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="L3">
+        <v>64</v>
+      </c>
+      <c r="M3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>90.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="G4">
+        <v>67.7</v>
+      </c>
+      <c r="H4">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I4" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="J4">
+        <v>83.6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>68</v>
+      </c>
+      <c r="L4">
+        <v>126</v>
+      </c>
+      <c r="M4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5">
+        <v>87.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="G5">
+        <v>64.3</v>
+      </c>
+      <c r="H5">
+        <v>61.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="J5">
+        <v>84.6</v>
+      </c>
+      <c r="K5" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="L5">
+        <v>162</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6">
+        <v>78.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="J6">
+        <v>80.7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="L6">
+        <v>103</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D7" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="G7">
+        <v>52.1</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="J7">
+        <v>69.3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G8">
+        <v>60.5</v>
+      </c>
+      <c r="H8">
+        <v>61.2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="J8">
+        <v>61.4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>80.8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38.1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F9" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="G9">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>61.1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="J9">
+        <v>77.8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L9">
+        <v>105</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10">
+        <v>81.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="G10">
+        <v>58.8</v>
+      </c>
+      <c r="H10">
+        <v>51.4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="J10">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K10" s="4">
+        <v>50.3</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>92.4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="G11">
+        <v>56.6</v>
+      </c>
+      <c r="H11">
+        <v>57.4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="J11">
+        <v>82.7</v>
+      </c>
+      <c r="K11" s="4">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L11">
+        <v>2341</v>
+      </c>
+      <c r="M11">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>78.8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="G12">
+        <v>53.7</v>
+      </c>
+      <c r="H12">
+        <v>47.6</v>
+      </c>
+      <c r="I12" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="J12">
+        <v>78.2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>43.7</v>
+      </c>
+      <c r="L12">
+        <v>211</v>
+      </c>
+      <c r="M12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <v>85.8</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F13" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="G13">
+        <v>56.8</v>
+      </c>
+      <c r="H13">
+        <v>51.2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="J13">
+        <v>79.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="L13">
+        <v>444</v>
+      </c>
+      <c r="M13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D14" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="G14">
+        <v>52.5</v>
+      </c>
+      <c r="H14">
+        <v>49.8</v>
+      </c>
+      <c r="I14" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="J14">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K14" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>93.8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E15" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="G15">
+        <v>54.8</v>
+      </c>
+      <c r="H15">
+        <v>70.2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>46.1</v>
+      </c>
+      <c r="J15">
+        <v>81.3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="L15">
+        <v>474</v>
+      </c>
+      <c r="M15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <v>90.3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>77.3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H16">
+        <v>69</v>
+      </c>
+      <c r="I16" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="J16">
+        <v>87.1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="L16">
+        <v>288</v>
+      </c>
+      <c r="M16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17">
+        <v>92.4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="G17">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H17">
+        <v>62.8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J17">
+        <v>92.3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="L17">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="G18">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H18">
+        <v>35.1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="J18">
+        <v>77.5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="L18">
+        <v>135</v>
+      </c>
+      <c r="M18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19">
+        <v>89.1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>51.6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="G19">
+        <v>58.9</v>
+      </c>
+      <c r="H19">
+        <v>52.9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="J19">
+        <v>90.3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>48</v>
+      </c>
+      <c r="L19">
+        <v>240</v>
+      </c>
+      <c r="M19">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Core_RISC_2022_2023\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268354A-66F2-45F1-9D9E-AE6BAF958DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552E206-F3E4-4ED2-BC59-46E2ACB85ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C74EF8FA-AD40-45EA-A7D2-8F8839E2C7A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{C74EF8FA-AD40-45EA-A7D2-8F8839E2C7A5}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -2008,7 +2008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2027,6 +2027,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2040,7 +2046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2048,6 +2054,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2364,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700F5A9-E5D3-4646-8DFA-7D1F89A425C9}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6252,7 +6267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB330550-DD18-498F-81BC-F9C6406C0566}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -6556,8 +6571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED760D-13CC-4DB9-84A4-08B67DC1E544}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6594,10 +6609,10 @@
         <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -6632,10 +6647,10 @@
         <v>36.6</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -6670,10 +6685,10 @@
         <v>65.2</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -6708,10 +6723,10 @@
         <v>68</v>
       </c>
       <c r="K4">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6746,10 +6761,10 @@
         <v>64.8</v>
       </c>
       <c r="K5">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6784,10 +6799,10 @@
         <v>37.1</v>
       </c>
       <c r="K6">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -6822,10 +6837,10 @@
         <v>49.9</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6860,10 +6875,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="K8">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6898,10 +6913,10 @@
         <v>64.099999999999994</v>
       </c>
       <c r="K9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -6936,10 +6951,10 @@
         <v>50.3</v>
       </c>
       <c r="K10">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6974,10 +6989,10 @@
         <v>64.099999999999994</v>
       </c>
       <c r="K11" s="3">
-        <v>2341</v>
+        <v>1697</v>
       </c>
       <c r="L11" s="3">
-        <v>1697</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -7012,10 +7027,10 @@
         <v>43.7</v>
       </c>
       <c r="K12">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -7050,10 +7065,10 @@
         <v>52.8</v>
       </c>
       <c r="K13">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="L13">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -7088,10 +7103,10 @@
         <v>50.5</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -7126,10 +7141,10 @@
         <v>81.3</v>
       </c>
       <c r="K15">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="L15">
-        <v>337</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -7164,10 +7179,10 @@
         <v>70.5</v>
       </c>
       <c r="K16">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="L16">
-        <v>195</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -7202,10 +7217,10 @@
         <v>64.900000000000006</v>
       </c>
       <c r="K17">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -7240,10 +7255,10 @@
         <v>30.6</v>
       </c>
       <c r="K18">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -7278,10 +7293,10 @@
         <v>48</v>
       </c>
       <c r="K19">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="L19">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7293,15 +7308,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21879E3-58A7-4778-A440-1541493062E5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="59.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="19.44140625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -7314,40 +7331,40 @@
       <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="9">
         <v>25.4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>74</v>
       </c>
-      <c r="E2">
-        <v>41</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="9">
+        <v>30</v>
+      </c>
+      <c r="F2" s="9">
         <v>54.6</v>
       </c>
-      <c r="G2">
-        <v>50.9</v>
+      <c r="G2" s="9">
+        <v>48.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7360,17 +7377,17 @@
       <c r="C3" s="4">
         <v>33.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>84.1</v>
       </c>
-      <c r="E3">
-        <v>53.5</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4">
         <v>67.8</v>
       </c>
-      <c r="G3">
-        <v>61.1</v>
+      <c r="G3" s="4">
+        <v>56.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7383,17 +7400,17 @@
       <c r="C4" s="4">
         <v>42.6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>102</v>
       </c>
-      <c r="E4">
-        <v>102.5</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="4">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4">
         <v>75.8</v>
       </c>
-      <c r="G4">
-        <v>81.7</v>
+      <c r="G4" s="4">
+        <v>73.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7406,17 +7423,17 @@
       <c r="C5" s="4">
         <v>39.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>97.3</v>
       </c>
-      <c r="E5">
-        <v>136</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="4">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4">
         <v>74.7</v>
       </c>
-      <c r="G5">
-        <v>85.4</v>
+      <c r="G5" s="4">
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7429,17 +7446,17 @@
       <c r="C6" s="4">
         <v>31.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>82.9</v>
       </c>
-      <c r="E6">
-        <v>80.5</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="F6" s="4">
         <v>58.9</v>
       </c>
-      <c r="G6">
-        <v>64.7</v>
+      <c r="G6" s="4">
+        <v>58.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7452,17 +7469,17 @@
       <c r="C7" s="4">
         <v>29.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>77.900000000000006</v>
       </c>
-      <c r="E7">
-        <v>40.5</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="4">
         <v>59.6</v>
       </c>
-      <c r="G7">
-        <v>54.1</v>
+      <c r="G7" s="4">
+        <v>51.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7475,17 +7492,17 @@
       <c r="C8" s="4">
         <v>50.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>97.1</v>
       </c>
-      <c r="E8">
-        <v>115</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="4">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4">
         <v>65.400000000000006</v>
       </c>
-      <c r="G8">
-        <v>83.6</v>
+      <c r="G8" s="4">
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7498,17 +7515,17 @@
       <c r="C9" s="4">
         <v>35.700000000000003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>84.9</v>
       </c>
-      <c r="E9">
-        <v>79.5</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="F9" s="4">
         <v>70.900000000000006</v>
       </c>
-      <c r="G9">
-        <v>67.7</v>
+      <c r="G9" s="4">
+        <v>62.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7521,40 +7538,40 @@
       <c r="C10" s="4">
         <v>37.6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>88.8</v>
       </c>
-      <c r="E10">
-        <v>48.5</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="4">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4">
         <v>63.4</v>
       </c>
-      <c r="G10">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G10" s="4">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>60.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>89.6</v>
       </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="6">
+        <v>1170.5</v>
+      </c>
+      <c r="F11" s="6">
         <v>73.400000000000006</v>
       </c>
-      <c r="G11">
-        <v>465.2</v>
+      <c r="G11" s="6">
+        <v>295.60000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7567,17 +7584,17 @@
       <c r="C12" s="4">
         <v>34</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>79</v>
       </c>
-      <c r="E12">
-        <v>159</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="4">
+        <v>105.5</v>
+      </c>
+      <c r="F12" s="4">
         <v>61</v>
       </c>
-      <c r="G12">
-        <v>79.7</v>
+      <c r="G12" s="4">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7590,17 +7607,17 @@
       <c r="C13" s="4">
         <v>47.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>84.7</v>
       </c>
-      <c r="E13">
-        <v>387.5</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="4">
+        <v>222</v>
+      </c>
+      <c r="F13" s="4">
         <v>66.2</v>
       </c>
-      <c r="G13">
-        <v>132.19999999999999</v>
+      <c r="G13" s="4">
+        <v>99.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7613,17 +7630,17 @@
       <c r="C14" s="4">
         <v>30.6</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="E14">
-        <v>76</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="4">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
         <v>63.2</v>
       </c>
-      <c r="G14">
-        <v>63.1</v>
+      <c r="G14" s="4">
+        <v>57.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7636,17 +7653,17 @@
       <c r="C15" s="4">
         <v>64.599999999999994</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>96.4</v>
       </c>
-      <c r="E15">
-        <v>405.5</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="4">
+        <v>237</v>
+      </c>
+      <c r="F15" s="4">
         <v>81.3</v>
       </c>
-      <c r="G15">
-        <v>147.19999999999999</v>
+      <c r="G15" s="4">
+        <v>113.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7659,17 +7676,17 @@
       <c r="C16" s="4">
         <v>66</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>107.3</v>
       </c>
-      <c r="E16">
-        <v>241.5</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>144</v>
+      </c>
+      <c r="F16" s="4">
         <v>78.8</v>
       </c>
-      <c r="G16">
-        <v>118.9</v>
+      <c r="G16" s="4">
+        <v>99.4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7682,17 +7699,17 @@
       <c r="C17" s="4">
         <v>51.9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>107.8</v>
       </c>
-      <c r="E17">
-        <v>66.5</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="F17" s="4">
         <v>78.599999999999994</v>
       </c>
-      <c r="G17">
-        <v>79.900000000000006</v>
+      <c r="G17" s="4">
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7705,17 +7722,17 @@
       <c r="C18" s="4">
         <v>39.200000000000003</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>60</v>
       </c>
-      <c r="E18">
-        <v>94.5</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="F18" s="4">
         <v>54</v>
       </c>
-      <c r="G18">
-        <v>60.1</v>
+      <c r="G18" s="4">
+        <v>54.7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7728,17 +7745,17 @@
       <c r="C19" s="4">
         <v>51</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>89.6</v>
       </c>
-      <c r="E19">
-        <v>185.5</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="4">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4">
         <v>69.2</v>
       </c>
-      <c r="G19">
-        <v>95.2</v>
+      <c r="G19" s="4">
+        <v>82.1</v>
       </c>
     </row>
   </sheetData>
@@ -7752,7 +7769,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7812,45 +7829,45 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>74.3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <v>25.1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9">
         <v>15.4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="9">
         <v>20.9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>50.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>41.8</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="9">
         <v>23.7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>72.7</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="9">
         <v>36.6</v>
       </c>
-      <c r="L2">
-        <v>60</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="7">
         <v>22</v>
+      </c>
+      <c r="M2" s="7">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7888,10 +7905,10 @@
         <v>65.2</v>
       </c>
       <c r="L3">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -7929,10 +7946,10 @@
         <v>68</v>
       </c>
       <c r="L4">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -7970,10 +7987,10 @@
         <v>64.8</v>
       </c>
       <c r="L5">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -8011,10 +8028,10 @@
         <v>37.1</v>
       </c>
       <c r="L6">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -8052,10 +8069,10 @@
         <v>49.9</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -8093,10 +8110,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="L8">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M8">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -8134,10 +8151,10 @@
         <v>64.099999999999994</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -8175,51 +8192,51 @@
         <v>50.3</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>92.4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>63.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>82</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>36.1</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>56.6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>57.4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>34.6</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>82.7</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>64.099999999999994</v>
       </c>
-      <c r="L11">
-        <v>2341</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="3">
         <v>1697</v>
+      </c>
+      <c r="M11" s="3">
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -8257,10 +8274,10 @@
         <v>43.7</v>
       </c>
       <c r="L12">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -8298,10 +8315,10 @@
         <v>52.8</v>
       </c>
       <c r="L13">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="M13">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -8339,10 +8356,10 @@
         <v>50.5</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -8380,10 +8397,10 @@
         <v>81.3</v>
       </c>
       <c r="L15">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="M15">
-        <v>337</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -8421,10 +8438,10 @@
         <v>70.5</v>
       </c>
       <c r="L16">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="M16">
-        <v>195</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -8462,10 +8479,10 @@
         <v>64.900000000000006</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -8503,10 +8520,10 @@
         <v>30.6</v>
       </c>
       <c r="L18">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -8544,10 +8561,10 @@
         <v>48</v>
       </c>
       <c r="L19">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="M19">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
